--- a/data/protocol_descr_french_Bermude_template.xlsx
+++ b/data/protocol_descr_french_Bermude_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1434A-92B6-4DF5-B467-0B17153B996D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3616D437-E679-48F7-9B68-0B4B8A2BFEEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10905" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,7 +852,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A36"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,177 +871,177 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/protocol_descr_french_Bermude_template.xlsx
+++ b/data/protocol_descr_french_Bermude_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3616D437-E679-48F7-9B68-0B4B8A2BFEEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDECBB1-5126-459A-890F-0F3D1800507A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10905" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10908" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,428 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{26B2188C-E16E-4A97-96C7-4CCC3F6B4DAE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter here the name of the variable as provided by your model wrapper, or as provided by the transformation function if the variable can be computed from the outputs of the model wrapper.
+Put NA if no corresponding variable.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{EE86F0E3-4FB1-4153-9F57-F000D4364865}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter here the unit of the variable as provided by your model wrapper.
+Units must be of the form m s-1, i.e. factor notation where exponents are directly attached to the unit symbols.
+To have the full lits of available units, install the units package in R and run units::valid_udunits().
+Dates of phenological stages must be un days, that is why the corresponding cells are locked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{25BF94C0-0FF6-498C-9FCA-97EF7AE050EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not observed but simulations required as output of the protocol.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4E0D3C90-D223-489A-8852-9D985503C2BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter here the list of almost additive parameters (see protocol description for more details) corresponding to the different groups.
+Parameter names must be spelled as they are used in the model wrapper.
+For phenology, Date_BBCH10 is not observed, thus only 3 parameters are allowed.
+Remove the lines for which there is no simulated variables, i.e. for which the column "Name of simulated variable" is set to NA in the tab "variables".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{51AE0110-FD10-440B-8B3A-5515C4DE69E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Give here the default value of the parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{85652600-8DB5-4172-9547-E4458865375C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Give here the lower bound of the parameter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{293E4EFE-E6AF-4992-8B8B-C4E6A5528D92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Give here the upper bound of the parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{EB8E8E4F-7842-47BD-ADCE-A52C4908437F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Description of the parameter.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D49CE863-0DEA-426B-85A7-3E1B87D233F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Give here the list of candidate parameters. 
+As many as you want for each group for which there is a simulation variable (see column 3, tab "variables").</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{87B1D14B-9BBB-483A-BDDE-089B81101B39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Give here the name of the group (copy from previous tab, do not change the spelling of the groups).</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D23AD698-0200-4973-BB9F-1A3BE030792B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+OPTIONNAL 
+Give here the name of the parameters you want to fix (either to a given value or computed from the value of other parameters).
+These parameters  must not have been listed in the "almost additive parameters" nor "candidate parameters" tabs. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{6BFAFC84-7520-4CA8-85C9-4C63DAB4B608}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Give a value or a formula to compute the parameter value (e.g. p1*p2, with p1 and p2 included in the list of "almost additive" or "candidate" parameters. )</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5FCB19D2-05AD-486A-A43C-4D57B7040A9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explain why the parameter is set to the given value or to the given formula. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6B6F215E-89D8-4CA4-8F7B-2839AD228A39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Situation number, as given in the data provided.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4BBB8A01-988A-42BD-BFC5-0960276BED54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Give here the name of the corresponding situation as used by your model wrapper.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Name of the simulated variable</t>
   </si>
@@ -120,13 +540,16 @@
   </si>
   <si>
     <t>Date_BBCH10</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +577,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -188,14 +637,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,22 +949,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -505,114 +978,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="8"/>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="8"/>
+      <c r="D3" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+      <c r="D4" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+      <c r="D5" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="g4Jm4acs+tRH9o1FfVxE4UxAZURXPU4fUGjvxzaGRbgYkWMeVuFr+12ngZkz/cDUd7EQwUK3hmmG9CDXIjwNCw==" saltValue="+xj504UsghrxOJMOIiLhhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1BACE7-D2DD-4997-AE82-5658B4914043}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1BACE7-D2DD-4997-AE82-5658B4914043}">
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -632,44 +1134,212 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G9" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="mtJ9prUuxYHJPezb+K71TuhqwCgEPRCYBV/37fRW1RVpps1rBLwwCZsCbP3LqX/7wVHVKBXvey2IvAkQC6nn8w==" saltValue="qHjEHtUjLgeVUskzLYer8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD1E0AB-DA48-4725-8A15-2574E28BAEBE}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD1E0AB-DA48-4725-8A15-2574E28BAEBE}">
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+      <selection activeCell="A2" sqref="A2:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -689,179 +1359,1116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="F14" s="3"/>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="10"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="10"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="10"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="10"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="10"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="u2bintiXiADI8NMfG5gLk+JSn+5iUPq8Vs9ARjzOvZQdh7+lllisTgGmtSCsLZzyTd93us+EaW6bqfzhU3P8Sw==" saltValue="n3YFLUz4VWd0PSA95Y0wug==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB91437-CFEE-439F-BAA5-E4DA36F2B7F7}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB91437-CFEE-439F-BAA5-E4DA36F2B7F7}">
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="5" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.5546875" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="WxTxnzqgpE0bFrZ2rIXuAcTtzL6n3PPvd2uwNxuSiq7suwR+u9BHs3jCQ4z0H3yBnQRpbgTh/45szEzoi8fE/A==" saltValue="2FboHVcuIdz3p1JM587ApA==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFA1037-B229-4133-BF90-976A30CFC27A}">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFA1037-B229-4133-BF90-976A30CFC27A}">
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -869,183 +2476,244 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>70</v>
       </c>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="6A5XIbmUe6RqnLyeW62evIQ1aR4n3wUyZEn2ZaT9WyJNBkTNOs9iqQ6ibHhTvoZJPH0pBrxiI4PSs44G/CzrPg==" saltValue="9WCHroyitA0QqMZ6GaNofA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/protocol_descr_french_Bermude_template.xlsx
+++ b/data/protocol_descr_french_Bermude_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404EB310-2CD4-4543-9604-525927FC40EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46BE5A7-8D00-4390-9C45-7788B4DAF2D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10905" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,6 +29,56 @@
     <author>Auteur</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DCFC51EE-BD01-44C2-B685-0D73BE893E0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Keep the list unchanged (only the order can be modified, see column B).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{EDA9602A-EAE7-4429-8D27-3071A8720596}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The names and list of groups must not be modified.
+The order of the groups can be changed. 
+Order them so that the calibration of the groups does not, or only little, impact the variables of the previous groups in the column.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{26B2188C-E16E-4A97-96C7-4CCC3F6B4DAE}">
       <text>
         <r>
@@ -139,6 +189,30 @@
 Parameter names must be spelled as they are used in the model wrapper.
 For phenology, Date_BBCH10 is not observed, thus only 3 parameters are allowed.
 Remove the lines for which there is no simulated variables, i.e. for which the column "Name of simulated variable" is set to NA in the tab "variables".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{272D954D-9488-4831-B0C5-370E0A52DB5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Order the groups so that the calibration of the groups does not, or only little, impact the variables of the previous groups in the column.</t>
         </r>
       </text>
     </comment>
@@ -950,7 +1024,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1168,7 @@
     <row r="35" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QS9BWTkI9u6GXT4mg/6nB3Z99/3tkUd+e64cUl6HhWZg6S/OY4Ov0qWXc8w7v8QyP4+F8IbbeWcYGMxonXvhxw==" saltValue="Wjs8gim384qKbluDx7OS+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aaYGmZf1TK/eGZ1YeA6X69m7fdBs6udbdw7V/qFD9b+j+Cy9gbrorjdwL4tnAHsWyfRu+/qm0YRyidSjktfMMQ==" saltValue="rbf/y20v37wCtSXlavZmhg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B26" xr:uid="{CEFD67D4-7332-4AAF-9EAC-2037F7988305}">
       <formula1>"phenology, ears, plant_biomass, plant_N_content, grain_number, yield, seed_protein"</formula1>
@@ -1114,7 +1188,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1382,7 @@
       <c r="F41" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0ABDeTpnTdHwaQrzJ8/DbKFWo0wnfF9+pqd1NwcWBlyb8PI/HnK+HY/RsxGe7dFA1Ge1/g8d3PbPOOaNAT5XCA==" saltValue="Qv6a7yN86HiqkQtyAJExTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FkVOq5pAUwPGqPN72gJ+yWgc5S30upI0QggyWHtZYX1eJpoQhpO/sKfyMqEesEUq33nyLrM669fR8YaSI/mg5Q==" saltValue="OP6hKt5FHujFfRnFmrTK7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{F697EF7B-D82D-433C-BCD8-13EE668DE8F3}">
       <formula1>"phenology, ears, plant_biomass, plant_N_content, grain_number, yield, seed_protein"</formula1>
@@ -1883,7 +1957,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2209,7 @@
       <c r="B44" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5NnjYPdy+HqadW47zAj4wG12KRVWmhLUy7lDkfMLWzNIyj5Kw1oD9kOUwPwkfg8AIG0lDCmTP7cF0B4eQkdc+w==" saltValue="wj1QQmI+bCKN1UnQT/fYiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oVqLjt0+QCxQR552hR+03yAIzNfYwFfAEH4+9NWdCK02gN5ho40Y2NHEKJw764WgJQsV14RWUmLQtJD+Ky7gIQ==" saltValue="qb/vHLVCYn/jneOlmstelg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
